--- a/excel_files/2.1.2.xlsx
+++ b/excel_files/2.1.2.xlsx
@@ -191,7 +191,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +300,37 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -351,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -359,8 +394,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,13 +505,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 2 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="3"/>
     <cellStyle name="Обычный 4" xfId="6"/>
+    <cellStyle name="Обычный_Лист2" xfId="7"/>
     <cellStyle name="Процентный 2" xfId="5"/>
     <cellStyle name="Процентный 3" xfId="4"/>
   </cellStyles>
@@ -779,11 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +836,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>56</v>
       </c>
@@ -804,7 +847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -815,8 +858,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -832,8 +875,11 @@
       <c r="E4" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -846,7 +892,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -862,8 +908,11 @@
       <c r="E6" s="33">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="40">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -875,8 +924,9 @@
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -892,8 +942,11 @@
       <c r="E8" s="34">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="41">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -909,8 +962,11 @@
       <c r="E9" s="34">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="41">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
@@ -922,8 +978,9 @@
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -939,8 +996,11 @@
       <c r="E11" s="34">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -956,8 +1016,11 @@
       <c r="E12" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="41">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -973,8 +1036,11 @@
       <c r="E13" s="34">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1056,11 @@
       <c r="E14" s="34">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="41">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1007,8 +1076,11 @@
       <c r="E15" s="34">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1024,8 +1096,11 @@
       <c r="E16" s="34">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="41">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1041,8 +1116,11 @@
       <c r="E17" s="34">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="41">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1058,8 +1136,11 @@
       <c r="E18" s="34">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="41">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1075,8 +1156,11 @@
       <c r="E19" s="34">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="41">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>55</v>
       </c>
@@ -1089,7 +1173,7 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1105,8 +1189,11 @@
       <c r="E21" s="36">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="40">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>36</v>
       </c>
@@ -1118,8 +1205,9 @@
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1135,8 +1223,11 @@
       <c r="E23" s="34">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="41">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1152,8 +1243,11 @@
       <c r="E24" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
@@ -1165,8 +1259,9 @@
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1182,8 +1277,11 @@
       <c r="E26" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1199,8 +1297,11 @@
       <c r="E27" s="34">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="41">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1216,8 +1317,11 @@
       <c r="E28" s="34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1233,8 +1337,11 @@
       <c r="E29" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1250,8 +1357,11 @@
       <c r="E30" s="34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1267,8 +1377,11 @@
       <c r="E31" s="34">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1284,8 +1397,11 @@
       <c r="E32" s="34">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1417,11 @@
       <c r="E33" s="34">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -1317,6 +1436,9 @@
       </c>
       <c r="E34" s="37">
         <v>3.7</v>
+      </c>
+      <c r="F34" s="37">
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/2.1.2.xlsx
+++ b/excel_files/2.1.2.xlsx
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +511,11 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -822,11 +827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I26" sqref="I26"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +841,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>56</v>
       </c>
@@ -847,7 +852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -858,8 +863,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -878,8 +883,11 @@
       <c r="F4" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="44">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -891,8 +899,9 @@
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -911,8 +920,11 @@
       <c r="F6" s="40">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="40">
+        <v>5.6522931163075061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -925,8 +937,9 @@
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -945,8 +958,11 @@
       <c r="F8" s="41">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="41">
+        <v>11.431224871295624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="F9" s="41">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="41">
+        <v>2.3014896328900498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
@@ -979,8 +998,9 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -999,8 +1019,11 @@
       <c r="F11" s="43">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="43">
+        <v>1.135902336603809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1019,8 +1042,11 @@
       <c r="F12" s="41">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="41">
+        <v>4.6416097340134757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1065,11 @@
       <c r="F13" s="41">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="41">
+        <v>2.5190401033977778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1059,8 +1088,11 @@
       <c r="F14" s="41">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="41">
+        <v>4.87237654018735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1079,8 +1111,11 @@
       <c r="F15" s="41">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="41">
+        <v>1.0485236242224962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1099,8 +1134,11 @@
       <c r="F16" s="41">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="41">
+        <v>8.3920504299407597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1119,8 +1157,11 @@
       <c r="F17" s="41">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="41">
+        <v>4.496569224517259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1139,8 +1180,11 @@
       <c r="F18" s="41">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="41">
+        <v>11.111247880614005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1159,8 +1203,11 @@
       <c r="F19" s="41">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="41">
+        <v>24.120065334108446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>55</v>
       </c>
@@ -1172,8 +1219,9 @@
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1192,8 +1240,11 @@
       <c r="F21" s="40">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="40">
+        <v>1.4897295269261084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>36</v>
       </c>
@@ -1206,8 +1257,9 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1226,8 +1278,11 @@
       <c r="F23" s="41">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="41">
+        <v>3.1892622653075549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1246,8 +1301,11 @@
       <c r="F24" s="41">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="41">
+        <v>0.50428784645720126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
@@ -1260,8 +1318,9 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1280,8 +1339,11 @@
       <c r="F26" s="43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="43">
+        <v>5.4126883056799469E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1300,8 +1362,11 @@
       <c r="F27" s="41">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="41">
+        <v>2.6203208437854411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1320,8 +1385,11 @@
       <c r="F28" s="41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="41">
+        <v>0.40810394991406473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1340,8 +1408,11 @@
       <c r="F29" s="41">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="41">
+        <v>0.83559945164153759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1360,8 +1431,11 @@
       <c r="F30" s="41">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="41">
+        <v>7.1735855281689909E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1380,8 +1454,11 @@
       <c r="F31" s="41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="41">
+        <v>1.1162300576418775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1400,8 +1477,11 @@
       <c r="F32" s="41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="41">
+        <v>1.528845742040833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1500,11 @@
       <c r="F33" s="41">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="41">
+        <v>0.49548426668050499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -1439,6 +1522,9 @@
       </c>
       <c r="F34" s="37">
         <v>11.7</v>
+      </c>
+      <c r="G34" s="46">
+        <v>11.592242751251584</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/2.1.2.xlsx
+++ b/excel_files/2.1.2.xlsx
@@ -827,12 +827,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -841,7 +838,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>56</v>
       </c>
@@ -852,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
@@ -863,8 +860,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -886,8 +883,11 @@
       <c r="G4" s="44">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="44">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -900,8 +900,9 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -923,8 +924,11 @@
       <c r="G6" s="40">
         <v>5.6522931163075061</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="40">
+        <v>4.684701603429354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -938,8 +942,9 @@
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -961,8 +966,11 @@
       <c r="G8" s="41">
         <v>11.431224871295624</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="41">
+        <v>9.1619177226137172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -984,8 +992,11 @@
       <c r="G9" s="41">
         <v>2.3014896328900498</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="41">
+        <v>2.1026629736131146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
@@ -999,8 +1010,9 @@
       <c r="E10" s="34"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1022,8 +1034,11 @@
       <c r="G11" s="43">
         <v>1.135902336603809</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="43">
+        <v>1.6883952033845095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1060,11 @@
       <c r="G12" s="41">
         <v>4.6416097340134757</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="41">
+        <v>5.4628226647491029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1086,11 @@
       <c r="G13" s="41">
         <v>2.5190401033977778</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="41">
+        <v>3.5472154122985047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1091,8 +1112,11 @@
       <c r="G14" s="41">
         <v>4.87237654018735</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="41">
+        <v>5.0893891878983322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1114,8 +1138,11 @@
       <c r="G15" s="41">
         <v>1.0485236242224962</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="41">
+        <v>0.47898402261907741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="G16" s="41">
         <v>8.3920504299407597</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="41">
+        <v>6.7601470318978496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="G17" s="41">
         <v>4.496569224517259</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="41">
+        <v>3.575054136227692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1183,8 +1216,11 @@
       <c r="G18" s="41">
         <v>11.111247880614005</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="41">
+        <v>5.6091986107002105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1206,8 +1242,11 @@
       <c r="G19" s="41">
         <v>24.120065334108446</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="41">
+        <v>23.492624647686782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>55</v>
       </c>
@@ -1220,8 +1259,9 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1243,8 +1283,11 @@
       <c r="G21" s="40">
         <v>1.4897295269261084</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="40">
+        <v>1.6110270246454947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>36</v>
       </c>
@@ -1258,8 +1301,9 @@
       <c r="E22" s="34"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1281,8 +1325,11 @@
       <c r="G23" s="41">
         <v>3.1892622653075549</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="41">
+        <v>3.5911978326282963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1304,8 +1351,11 @@
       <c r="G24" s="41">
         <v>0.50428784645720126</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="41">
+        <v>0.46905009439682216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
@@ -1319,8 +1369,9 @@
       <c r="E25" s="34"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1342,8 +1393,11 @@
       <c r="G26" s="43">
         <v>5.4126883056799469E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="43">
+        <v>0.17806447072843995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1365,8 +1419,11 @@
       <c r="G27" s="41">
         <v>2.6203208437854411</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="41">
+        <v>2.6322222213217694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="G28" s="41">
         <v>0.40810394991406473</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="41">
+        <v>1.8451824926932785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1411,8 +1471,11 @@
       <c r="G29" s="41">
         <v>0.83559945164153759</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="41">
+        <v>0.59506627968271797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1434,8 +1497,11 @@
       <c r="G30" s="41">
         <v>7.1735855281689909E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="41">
+        <v>2.8565820593621703E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1457,8 +1523,11 @@
       <c r="G31" s="41">
         <v>1.1162300576418775</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="41">
+        <v>0.17527311250618646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1480,8 +1549,11 @@
       <c r="G32" s="41">
         <v>1.528845742040833</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="41">
+        <v>1.6783444058510675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
@@ -1503,8 +1575,11 @@
       <c r="G33" s="41">
         <v>0.49548426668050499</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="41">
+        <v>0.45739674737486102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -1525,6 +1600,9 @@
       </c>
       <c r="G34" s="46">
         <v>11.592242751251584</v>
+      </c>
+      <c r="H34" s="46">
+        <v>11.499084267608914</v>
       </c>
     </row>
   </sheetData>
